--- a/out.xlsx
+++ b/out.xlsx
@@ -3,28 +3,29 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="0" showSheetTabs="0" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8200" windowWidth="16380" xWindow="0" yWindow="500"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="0" showVerticalScroll="1" showSheetTabs="0" xWindow="0" yWindow="495" windowWidth="16380" windowHeight="8205" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="报价单" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">'报价单'!$B$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'报价单'!$B$1:$G$42</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt formatCode="m/d/yyyy" numFmtId="164"/>
-    <numFmt formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)" numFmtId="165"/>
-    <numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);;_(@_)" numFmtId="166"/>
-    <numFmt formatCode="@&quot;  &quot;" numFmtId="167"/>
-    <numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)" numFmtId="168"/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);;_(@_)"/>
+    <numFmt numFmtId="166" formatCode="@&quot;  &quot;"/>
+    <numFmt numFmtId="167" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -92,6 +93,12 @@
       <b val="1"/>
       <sz val="12"/>
     </font>
+    <font>
+      <name val="細明體"/>
+      <charset val="136"/>
+      <family val="3"/>
+      <sz val="9"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -302,7 +309,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -311,7 +318,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -332,155 +339,221 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="77">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="0" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -569,7 +642,7 @@
     </to>
     <pic>
       <nvPicPr>
-        <cNvPr descr="53300044_382825735846298_6764801330625118208_n" id="4" name="圖片 9"/>
+        <cNvPr id="4" name="圖片 9" descr="53300044_382825735846298_6764801330625118208_n"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -900,455 +973,491 @@
   </sheetPr>
   <dimension ref="B1:G42"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="F4" sqref="F4:G4"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9"/>
-    <col customWidth="1" max="2" min="2" width="14.6640625"/>
-    <col customWidth="1" max="3" min="3" width="16.6640625"/>
-    <col customWidth="1" max="8" min="4" width="14.6640625"/>
-    <col customWidth="1" max="1025" min="9" width="9"/>
+    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="14.7109375" customWidth="1" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" min="3" max="3"/>
+    <col width="14.7109375" customWidth="1" min="4" max="8"/>
+    <col width="9" customWidth="1" min="9" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="45" r="1">
-      <c r="B1" s="9" t="inlineStr">
+    <row r="1" ht="45" customHeight="1">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>聖大國際有限公司</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>報價單</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" s="11" t="n"/>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="B2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="F3" s="12" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="G3" s="13" t="inlineStr">
-        <is>
-          <t>2021/07/10</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="14" t="inlineStr">
+      <c r="G3" s="52" t="inlineStr">
+        <is>
+          <t>2021/07/15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>公司地址：新北市土城區亞洲路11巷1弄17號</t>
         </is>
       </c>
-      <c r="F4" s="12" t="n"/>
-      <c r="G4" s="15" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="14" t="inlineStr">
+      <c r="F4" s="4" t="n"/>
+      <c r="G4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>郵遞區號：236</t>
         </is>
       </c>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="16" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="14" t="inlineStr">
+      <c r="F5" s="4" t="n"/>
+      <c r="G5" s="8" t="n"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>電話：0931330086</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="17" t="inlineStr">
+      <c r="B8" s="9" t="inlineStr">
         <is>
           <t>特爲下列客戶報價</t>
         </is>
       </c>
-      <c r="F8" s="18" t="inlineStr">
+      <c r="F8" s="10" t="inlineStr">
         <is>
           <t>報價有效期至</t>
         </is>
       </c>
-      <c r="G8" s="19" t="inlineStr">
-        <is>
-          <t>2021/08/09</t>
+      <c r="G8" s="53" t="inlineStr">
+        <is>
+          <t>2021/08/14</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="14" t="inlineStr">
-        <is>
-          <t>姓名：陳紹紹</t>
-        </is>
-      </c>
-      <c r="F9" s="20" t="n"/>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>姓名：無</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="14" t="inlineStr">
-        <is>
-          <t>公司名稱：聖大國際有限公司</t>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>公司名稱：芯成科技股份有限公司</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="14" t="inlineStr">
-        <is>
-          <t>統一編號：50990180</t>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>統一編號：24268597</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="14" t="inlineStr">
-        <is>
-          <t>公司地址：新北市土城區順風路52號3樓</t>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>公司地址：新竹縣竹北市泰和里中和街62巷17弄1號2樓</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="14" t="inlineStr">
-        <is>
-          <t>公司電話：0931330086</t>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>公司電話：03-5520981#1688</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="17" t="inlineStr">
+      <c r="B16" s="9" t="inlineStr">
         <is>
           <t>特別注意事項：</t>
         </is>
       </c>
-      <c r="C16" s="14" t="inlineStr">
-        <is>
-          <t>給我小心一點</t>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>無</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="21" t="n"/>
+      <c r="B17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="21" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="20" r="19" s="22">
-      <c r="B19" s="23" t="inlineStr">
+      <c r="B18" s="13" t="n"/>
+    </row>
+    <row r="19" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="B19" s="15" t="inlineStr">
         <is>
           <t>售貨員</t>
         </is>
       </c>
-      <c r="C19" s="24" t="inlineStr">
+      <c r="C19" s="49" t="inlineStr">
         <is>
           <t>發貨日期</t>
         </is>
       </c>
-      <c r="D19" s="8" t="inlineStr">
+      <c r="D19" s="48" t="inlineStr">
         <is>
           <t>發貨方式</t>
         </is>
       </c>
-      <c r="E19" s="49" t="n"/>
-      <c r="F19" s="24" t="inlineStr">
+      <c r="E19" s="54" t="n"/>
+      <c r="F19" s="49" t="inlineStr">
         <is>
           <t>付款方式</t>
         </is>
       </c>
-      <c r="G19" s="49" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="20" r="20" s="22">
-      <c r="B20" s="25" t="inlineStr">
-        <is>
-          <t>陳少雲</t>
-        </is>
-      </c>
-      <c r="C20" s="26" t="inlineStr">
-        <is>
-          <t>2021/07/30</t>
-        </is>
-      </c>
-      <c r="D20" s="6" t="inlineStr">
-        <is>
-          <t>電郵</t>
-        </is>
-      </c>
-      <c r="E20" s="50" t="n"/>
-      <c r="F20" s="6" t="inlineStr">
-        <is>
-          <t>支票</t>
-        </is>
-      </c>
-      <c r="G20" s="50" t="n"/>
+      <c r="G19" s="54" t="n"/>
+    </row>
+    <row r="20" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="B20" s="17" t="inlineStr">
+        <is>
+          <t>陳聖尹</t>
+        </is>
+      </c>
+      <c r="C20" s="18" t="inlineStr"/>
+      <c r="D20" s="50" t="inlineStr">
+        <is>
+          <t>其他貨運公司</t>
+        </is>
+      </c>
+      <c r="E20" s="55" t="n"/>
+      <c r="F20" s="50" t="inlineStr">
+        <is>
+          <t>匯款</t>
+        </is>
+      </c>
+      <c r="G20" s="55" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="21" t="n"/>
-      <c r="C21" s="21" t="n"/>
-      <c r="D21" s="21" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="20" r="23" s="22">
-      <c r="B23" s="27" t="inlineStr">
+      <c r="B21" s="13" t="n"/>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+    </row>
+    <row r="23" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="B23" s="19" t="inlineStr">
         <is>
           <t>數量</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="C23" s="51" t="inlineStr">
         <is>
           <t>說明</t>
         </is>
       </c>
-      <c r="D23" s="51" t="n"/>
-      <c r="E23" s="27" t="inlineStr">
+      <c r="D23" s="56" t="n"/>
+      <c r="E23" s="19" t="inlineStr">
         <is>
           <t>單價</t>
         </is>
       </c>
-      <c r="F23" s="28" t="inlineStr">
+      <c r="F23" s="20" t="inlineStr">
         <is>
           <t>應稅</t>
         </is>
       </c>
-      <c r="G23" s="28" t="inlineStr">
+      <c r="G23" s="20" t="inlineStr">
         <is>
           <t>金額</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="24" s="22">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>電腦</t>
-        </is>
-      </c>
-      <c r="D24" s="52" t="n"/>
-      <c r="E24" s="30" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="F24" s="31" t="inlineStr"/>
-      <c r="G24" s="32">
+    <row r="24" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="B24" s="21" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C24" s="57" t="inlineStr">
+        <is>
+          <t>電腦主機</t>
+        </is>
+      </c>
+      <c r="D24" s="58" t="n"/>
+      <c r="E24" s="59" t="inlineStr">
+        <is>
+          <t>5500</t>
+        </is>
+      </c>
+      <c r="F24" s="60" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G24" s="61">
         <f>B24*E24</f>
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="25" s="22">
-      <c r="B25" s="33" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>雞掰</t>
-        </is>
-      </c>
-      <c r="D25" s="53" t="n"/>
-      <c r="E25" s="34" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="F25" s="35" t="inlineStr"/>
-      <c r="G25" s="36">
+    <row r="25" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="B25" s="22" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C25" s="62" t="inlineStr">
+        <is>
+          <t>加購記憶體</t>
+        </is>
+      </c>
+      <c r="D25" s="63" t="n"/>
+      <c r="E25" s="64" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="F25" s="65" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G25" s="66">
         <f>B25*E25</f>
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="26" s="22">
-      <c r="B26" s="33" t="n"/>
-      <c r="C26" s="3" t="n"/>
-      <c r="D26" s="53" t="n"/>
-      <c r="E26" s="34" t="n"/>
-      <c r="F26" s="35" t="n"/>
-      <c r="G26" s="36">
+    <row r="26" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="B26" s="22" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C26" s="62" t="inlineStr">
+        <is>
+          <t>USB3.0擴充卡</t>
+        </is>
+      </c>
+      <c r="D26" s="63" t="n"/>
+      <c r="E26" s="64" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="F26" s="65" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G26" s="66">
         <f>B26*E26</f>
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="27" s="22">
-      <c r="B27" s="33" t="n"/>
-      <c r="C27" s="3" t="n"/>
-      <c r="D27" s="53" t="n"/>
-      <c r="E27" s="34" t="n"/>
-      <c r="F27" s="35" t="n"/>
-      <c r="G27" s="36">
+    <row r="27" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="B27" s="22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C27" s="62" t="inlineStr">
+        <is>
+          <t>RS232擴充卡含線</t>
+        </is>
+      </c>
+      <c r="D27" s="63" t="n"/>
+      <c r="E27" s="64" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="F27" s="65" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G27" s="66">
         <f>B27*E27</f>
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="28" s="22">
-      <c r="B28" s="33" t="n"/>
-      <c r="C28" s="3" t="n"/>
-      <c r="D28" s="53" t="n"/>
-      <c r="E28" s="34" t="n"/>
-      <c r="F28" s="35" t="n"/>
-      <c r="G28" s="36">
+    <row r="28" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="B28" s="22" t="n"/>
+      <c r="C28" s="62" t="n"/>
+      <c r="D28" s="63" t="n"/>
+      <c r="E28" s="64" t="n"/>
+      <c r="F28" s="65" t="n"/>
+      <c r="G28" s="66">
         <f>B28*E28</f>
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="29" s="22">
-      <c r="B29" s="33" t="n"/>
-      <c r="C29" s="3" t="n"/>
-      <c r="D29" s="53" t="n"/>
-      <c r="E29" s="34" t="n"/>
-      <c r="F29" s="35" t="n"/>
-      <c r="G29" s="36">
+    <row r="29" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="B29" s="22" t="n"/>
+      <c r="C29" s="62" t="n"/>
+      <c r="D29" s="63" t="n"/>
+      <c r="E29" s="64" t="n"/>
+      <c r="F29" s="65" t="n"/>
+      <c r="G29" s="66">
         <f>B29*E29</f>
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="30" s="22">
-      <c r="B30" s="33" t="n"/>
-      <c r="C30" s="3" t="n"/>
-      <c r="D30" s="53" t="n"/>
-      <c r="E30" s="34" t="n"/>
-      <c r="F30" s="35" t="n"/>
-      <c r="G30" s="36">
+    <row r="30" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="B30" s="22" t="n"/>
+      <c r="C30" s="62" t="n"/>
+      <c r="D30" s="63" t="n"/>
+      <c r="E30" s="64" t="n"/>
+      <c r="F30" s="65" t="n"/>
+      <c r="G30" s="66">
         <f>B30*E30</f>
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="31" s="22">
-      <c r="B31" s="33" t="n"/>
-      <c r="C31" s="3" t="n"/>
-      <c r="D31" s="53" t="n"/>
-      <c r="E31" s="34" t="n"/>
-      <c r="F31" s="35" t="n"/>
-      <c r="G31" s="36">
+    <row r="31" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="B31" s="22" t="n"/>
+      <c r="C31" s="62" t="n"/>
+      <c r="D31" s="63" t="n"/>
+      <c r="E31" s="64" t="n"/>
+      <c r="F31" s="65" t="n"/>
+      <c r="G31" s="66">
         <f>B31*E31</f>
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="32" s="22">
-      <c r="B32" s="33" t="n"/>
-      <c r="C32" s="3" t="n"/>
-      <c r="D32" s="53" t="n"/>
-      <c r="E32" s="34" t="n"/>
-      <c r="F32" s="35" t="n"/>
-      <c r="G32" s="36">
+    <row r="32" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="B32" s="22" t="n"/>
+      <c r="C32" s="62" t="n"/>
+      <c r="D32" s="63" t="n"/>
+      <c r="E32" s="64" t="n"/>
+      <c r="F32" s="65" t="n"/>
+      <c r="G32" s="66">
         <f>B32*E32</f>
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="33" s="22">
-      <c r="B33" s="37" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="54" t="n"/>
-      <c r="E33" s="38" t="n"/>
-      <c r="F33" s="39" t="n"/>
-      <c r="G33" s="40">
+    <row r="33" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="B33" s="25" t="n"/>
+      <c r="C33" s="67" t="n"/>
+      <c r="D33" s="68" t="n"/>
+      <c r="E33" s="69" t="n"/>
+      <c r="F33" s="70" t="n"/>
+      <c r="G33" s="71">
         <f>B33*E33</f>
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="34" s="22">
-      <c r="B34" s="41" t="n"/>
-      <c r="C34" s="41" t="n"/>
-      <c r="D34" s="41" t="n"/>
-      <c r="F34" s="42" t="inlineStr">
+    <row r="34" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="B34" s="29" t="n"/>
+      <c r="C34" s="29" t="n"/>
+      <c r="D34" s="29" t="n"/>
+      <c r="F34" s="72" t="inlineStr">
         <is>
           <t>小計</t>
         </is>
       </c>
-      <c r="G34" s="43">
+      <c r="G34" s="73">
         <f>SUM(G24:G33)</f>
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="35" s="22">
-      <c r="B35" s="44" t="inlineStr">
+    <row r="35" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="B35" s="32" t="inlineStr">
         <is>
           <t>中國信託銀行</t>
         </is>
       </c>
-      <c r="C35" s="44" t="inlineStr">
+      <c r="C35" s="32" t="inlineStr">
         <is>
           <t>土城分行</t>
         </is>
       </c>
-      <c r="D35" s="41" t="n"/>
-      <c r="F35" s="42" t="inlineStr">
+      <c r="D35" s="29" t="n"/>
+      <c r="F35" s="72" t="inlineStr">
         <is>
           <t>稅率</t>
         </is>
       </c>
-      <c r="G35" s="45" t="n">
+      <c r="G35" s="33" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="36" s="22">
-      <c r="B36" s="44" t="inlineStr">
+    <row r="36" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="B36" s="32" t="inlineStr">
         <is>
           <t>戶名</t>
         </is>
       </c>
-      <c r="C36" s="44" t="inlineStr">
+      <c r="C36" s="32" t="inlineStr">
         <is>
           <t>聖大國際有限公司</t>
         </is>
       </c>
-      <c r="D36" s="41" t="n"/>
-      <c r="F36" s="42" t="inlineStr">
+      <c r="D36" s="29" t="n"/>
+      <c r="F36" s="72" t="inlineStr">
         <is>
           <t>稅額</t>
         </is>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="74">
         <f>G35*SUMIF(F24:F33,"T",G24:G33)</f>
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="37" s="22">
-      <c r="B37" s="44" t="inlineStr">
+    <row r="37" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="B37" s="32" t="inlineStr">
         <is>
           <t>帳號</t>
         </is>
       </c>
-      <c r="C37" s="41" t="inlineStr">
+      <c r="C37" s="29" t="inlineStr">
         <is>
           <t>369 54040269 2</t>
         </is>
       </c>
-      <c r="D37" s="41" t="n"/>
-      <c r="F37" s="42" t="inlineStr">
+      <c r="D37" s="29" t="n"/>
+      <c r="F37" s="72" t="inlineStr">
         <is>
           <t>其他費用</t>
         </is>
       </c>
-      <c r="G37" s="46" t="n">
+      <c r="G37" s="74" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="38" s="22">
-      <c r="F38" s="47" t="inlineStr">
+    <row r="38" ht="20.1" customFormat="1" customHeight="1" s="14">
+      <c r="F38" s="75" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
       </c>
-      <c r="G38" s="48">
+      <c r="G38" s="76">
         <f>G34+G36+G37</f>
         <v/>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" s="14" t="inlineStr">
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="B40" s="6" t="inlineStr">
         <is>
           <t>如您有任何疑問，請即聯絡：陳聖尹，0931330086，teching_chen2000@yahoo.com.tw</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B42" s="41" t="inlineStr">
         <is>
           <t>祝事業興旺！</t>
         </is>
@@ -1356,26 +1465,26 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.708333333333333" footer="0.511805555555555" header="0.511805555555555" left="0.511805555555555" right="0.511805555555555" top="0.708333333333333"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.708333333333333" bottom="0.708333333333333" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>